--- a/Other/lab01 tims.xlsx
+++ b/Other/lab01 tims.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\university\git\3-sem\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24E5219B-0E20-43F8-87A7-0E0A9EBCB891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B388D77-B8AA-47FC-B01B-C66A1F07448D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$H$32:$N$32</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$H$33:$N$33</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$H$32:$N$32</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$H$33:$N$33</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,8 +38,166 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+  <si>
+    <t>x(i)</t>
+  </si>
+  <si>
+    <t>n(i)</t>
+  </si>
+  <si>
+    <t>w(i)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) обчислити розмах вибірки, моду та медіану статичного ряду </t>
+  </si>
+  <si>
+    <t>Розмах</t>
+  </si>
+  <si>
+    <t>Мода</t>
+  </si>
+  <si>
+    <t>Медіана</t>
+  </si>
+  <si>
+    <t>3) побудувати полігон частот</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кількість проміжків </t>
+  </si>
+  <si>
+    <t>Довжина кожного</t>
+  </si>
+  <si>
+    <t>d(j)</t>
+  </si>
+  <si>
+    <t>n(j)</t>
+  </si>
+  <si>
+    <t>n(j)/h</t>
+  </si>
+  <si>
+    <t>[10;14)</t>
+  </si>
+  <si>
+    <t>[14; 18)</t>
+  </si>
+  <si>
+    <t>[18; 22)</t>
+  </si>
+  <si>
+    <t>[22; 26)</t>
+  </si>
+  <si>
+    <t>[26; 30)</t>
+  </si>
+  <si>
+    <t>[30; 34)</t>
+  </si>
+  <si>
+    <t>[34; 38]</t>
+  </si>
+  <si>
+    <t>4) побудувати інтервальний статистичний ряд, знайти моду та медіану</t>
+  </si>
+  <si>
+    <t>1) побудувати дискретний статистичний ряд частот та відносних частот</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Інтервальний  статистичний ряд </t>
+  </si>
+  <si>
+    <t>z(m)</t>
+  </si>
+  <si>
+    <t>z(m-1)</t>
+  </si>
+  <si>
+    <t>n(m)</t>
+  </si>
+  <si>
+    <t>m(M-1)</t>
+  </si>
+  <si>
+    <t>Модальний інтервал [22; 26)</t>
+  </si>
+  <si>
+    <t>5) побудувати гістограму частот</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6)  побудувати емпіричну функцію розподілу та її графік </t>
+  </si>
+  <si>
+    <t>Емпірична функція розподілу</t>
+  </si>
+  <si>
+    <t>F*x(i)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7) обчислити середні значення дискретного та інтервального статистичних рядів </t>
+  </si>
+  <si>
+    <t>Дискретний статистичний ряд</t>
+  </si>
+  <si>
+    <t>Вибіркове середнє значення дискретного статистичного ряду</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вибіркове середнє значення інтервального статистичного ряду </t>
+  </si>
+  <si>
+    <t>8) обчислити дисперсію і середньоквадратичне відхилення статистичного ряду</t>
+  </si>
+  <si>
+    <t>x^2(i)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вибіркова дисперсія </t>
+  </si>
+  <si>
+    <t>Середньоквадратичне відхилення</t>
+  </si>
+  <si>
+    <t>9) обчислити коефіцієнт варіації</t>
+  </si>
+  <si>
+    <t>Коефіцієнт варіації</t>
+  </si>
+  <si>
+    <t>10) обчислити центральні емпіричні моменти третього і четвертого порядків</t>
+  </si>
+  <si>
+    <t>Центральний емпіричний момент третього порядку</t>
+  </si>
+  <si>
+    <t>Центральний емпіричний момент четвертого порядку</t>
+  </si>
+  <si>
+    <t>11) обчислити асиметрію та ексцес</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Асиметрія </t>
+  </si>
+  <si>
+    <t>Ексцес</t>
+  </si>
+  <si>
+    <t>Кількість</t>
+  </si>
+  <si>
+    <t>n(m(0)-1)</t>
+  </si>
+  <si>
+    <t>n(m(0)+1)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -80,6 +244,2987 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="uk-UA"/>
+              <a:t>Полігон частот</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-271B-41A7-9E86-D77B5BEA82B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="490905800"/>
+        <c:axId val="490906128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="490905800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>x(i)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.91949868766404197"/>
+              <c:y val="0.87868037328667248"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490906128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="490906128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>n(i)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="9.9714566929133858E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490905800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="uk-UA"/>
+              <a:t>Графік</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="uk-UA" baseline="0"/>
+              <a:t> емпіричної функції розподілу</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F*x(i)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$24:$X$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$25:$X$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E95-4827-B69A-20B85C00CE54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="494274672"/>
+        <c:axId val="494275984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="494274672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>x(i)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494275984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="494275984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>F*x(i)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494274672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="uk-UA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Гістограма</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{1DFC9BCF-86CE-442F-9874-B9163D2E491D}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  </a:rPr>
+                  <a:t>d(j)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>n(j)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>n(j)</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7615DB15-0607-CC1F-8636-A0FD4365FDD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8213</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9896</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>316971</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9895</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16D9A16D-DAFD-3370-2677-06F125D73908}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9211590" y="722415"/>
+              <a:ext cx="4603667" cy="2671948"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>603662</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>267194</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>70262</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A246389C-C193-BE88-5860-D1EE0E75F8CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,251 +3523,1040 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <f>COUNT(A1:A2)</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f>D3/$D$32</f>
+        <v>0.02</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <f>COUNT(A3)</f>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E31" si="0">D4/$D$32</f>
+        <v>0.01</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <f>COUNT(A4)</f>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f>C31-C3</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <f>COUNT(A5:A7)</f>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f>_xlfn.MODE.SNGL(A1:A100)</f>
+        <v>25</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <f>COUNT(A8)</f>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <f>MEDIAN(A1:A100)</f>
+        <v>25</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>12</v>
+      </c>
+      <c r="AB7">
+        <v>16</v>
+      </c>
+      <c r="AC7">
+        <v>20</v>
+      </c>
+      <c r="AD7">
+        <v>24</v>
+      </c>
+      <c r="AE7">
+        <v>28</v>
+      </c>
+      <c r="AF7">
+        <v>32</v>
+      </c>
+      <c r="AG7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <f>COUNT(A9:A10)</f>
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>7</v>
+      </c>
+      <c r="AB8">
+        <v>10</v>
+      </c>
+      <c r="AC8">
+        <v>13</v>
+      </c>
+      <c r="AD8">
+        <v>26</v>
+      </c>
+      <c r="AE8">
+        <v>19</v>
+      </c>
+      <c r="AF8">
+        <v>15</v>
+      </c>
+      <c r="AG8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <f>COUNT(A11:A13)</f>
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <f>COUNT(A14:A17)</f>
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG10">
+        <f>SUMPRODUCT(C3:C31,D3:D31)/D32</f>
+        <v>24.61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <f>COUNT(A18:A20)</f>
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG11">
+        <f>SUMPRODUCT(AA7:AG7,AA8:AG8)/D32</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <f>COUNT(A21:A23)</f>
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <f>COUNT(A24:A26)</f>
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <f>COUNT(A27:A30)</f>
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <f>COUNT(A31:A34)</f>
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA15">
+        <f>AA7*AA7</f>
+        <v>144</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" ref="AB15:AG15" si="1">AB7*AB7</f>
+        <v>256</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="1"/>
+        <v>576</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="1"/>
+        <v>784</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="1"/>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <f>COUNT(A35:A41)</f>
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <f>AA8</f>
+        <v>7</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" ref="AB16:AG16" si="2">AB8</f>
+        <v>10</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <f>COUNT(A42:A48)</f>
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <f>COUNT(A49:A56)</f>
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <f>COUNT(A57:A62)</f>
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD19">
+        <f>SUMPRODUCT(AA15:AG15,AA16:AG16)/D32 - (AG11*AG11)</f>
+        <v>44.600000000000023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <f>COUNT(A63:A68)</f>
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD20">
+        <f>SQRT(AD19)</f>
+        <v>6.6783231428256018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <f>COUNT(A69:A73)</f>
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <f>D21/$D$32</f>
+        <v>0.05</v>
+      </c>
+      <c r="P21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <f>COUNT(A74:A75)</f>
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <f>COUNT(A76:A80)</f>
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="P23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <f>COUNT(A81:A83)</f>
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="P24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>10</v>
+      </c>
+      <c r="R24">
+        <v>14</v>
+      </c>
+      <c r="S24">
+        <v>18</v>
+      </c>
+      <c r="T24">
+        <v>22</v>
+      </c>
+      <c r="U24">
+        <v>26</v>
+      </c>
+      <c r="V24">
+        <v>30</v>
+      </c>
+      <c r="W24">
+        <v>34</v>
+      </c>
+      <c r="X24">
+        <v>38</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC24">
+        <f>AD20/AG11</f>
+        <v>0.26713292571302405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <f>COUNT(A84:A86)</f>
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="P25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f>H33/D32</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S25">
+        <f>SUM(H33:I33)/D32</f>
+        <v>0.17</v>
+      </c>
+      <c r="T25">
+        <f>SUM(H33:J33)/D32</f>
+        <v>0.3</v>
+      </c>
+      <c r="U25">
+        <f>SUM(H33:K33)/D32</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="V25">
+        <f>SUM(H33:L33)/D32</f>
+        <v>0.75</v>
+      </c>
+      <c r="W25">
+        <f>SUM(H33:M33)/D32</f>
+        <v>0.9</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>33</v>
+      </c>
+      <c r="D26">
+        <f>COUNT(A87:A90)</f>
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <f>COUNT(A91:A92)</f>
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <f>COUNT(A93:A94)</f>
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <f>_xlfn.FLOOR.MATH(1 + 3.2*LOG10(100))</f>
+        <v>7</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF28">
+        <f>SUMPRODUCT((AA7:AG7 - $AG$11)^3,H33:N33)/D32</f>
+        <v>-53.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>36</v>
+      </c>
+      <c r="D29">
+        <f>COUNT(A95:A96)</f>
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <f>_xlfn.CEILING.MATH(H5/I28)</f>
+        <v>4</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF29">
+        <f>SUMPRODUCT((AA7:AG7 - $AG$11)^4,AA8:AG8)/D32</f>
+        <v>4576.5200000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <f>COUNT(A97:A98)</f>
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>38</v>
+      </c>
+      <c r="D31">
+        <f>COUNT(A99:A100)</f>
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32">
+        <f>SUM(D3:D31)</f>
+        <v>100</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33">
+        <f>SUM(D3:D6)</f>
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <f>SUM(D7:D10)</f>
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <f>SUM(D11:D14)</f>
+        <v>13</v>
+      </c>
+      <c r="K33">
+        <f>SUM(D15:D18)</f>
+        <v>26</v>
+      </c>
+      <c r="L33">
+        <f>SUM(D19:D22)</f>
+        <v>19</v>
+      </c>
+      <c r="M33">
+        <f>SUM(D23:D26)</f>
+        <v>15</v>
+      </c>
+      <c r="N33">
+        <f>SUM(D27:D31)</f>
+        <v>10</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB33">
+        <f>AF28/(AD20^3)</f>
+        <v>-0.17968582447064382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34">
+        <f>H33/$I$29</f>
+        <v>1.75</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:N34" si="3">I33/$I$29</f>
+        <v>2.5</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>3.25</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="3"/>
+        <v>4.75</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="3"/>
+        <v>3.75</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB34">
+        <f>AF29/(AD20^4)-3</f>
+        <v>-0.69927004363651202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36">
+        <f>H38+(((H37-H38)/H39)*(D32/2-H40))</f>
+        <v>25.076923076923077</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37">
+        <f>26</f>
+        <v>26</v>
+      </c>
+      <c r="M37" t="s">
+        <v>5</v>
+      </c>
+      <c r="N37">
+        <f>H38+((H37-H38)*(H39-H40)/((H39-H41)+(H39+H42)))</f>
+        <v>21.724137931034484</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39">
+        <f>K33</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40">
+        <f>SUM(H33:J33)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41">
+        <f>J33</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42">
+        <f>L33</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>24</v>
       </c>
@@ -889,5 +4823,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>